--- a/biology/Histoire de la zoologie et de la botanique/Manuel_Laínz/Manuel_Laínz.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Manuel_Laínz/Manuel_Laínz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuel_La%C3%ADnz</t>
+          <t>Manuel_Laínz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Manuel Laínz y Gallo SJ, né à Santander le 5 mai 1923, est un prêtre jésuite, entomologiste, ptéridologue et botaniste espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manuel_La%C3%ADnz</t>
+          <t>Manuel_Laínz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Santander le 5 mai 1923, dans une famille bourgeoise, baptisé Manuel Sebastián Pío Laínz y Gallo. Son père, Manuel Lainz y Ribalaygua, est l'un des hommes les plus riches de la province, propriétaire de la compagnie de tabac Jean (es) et du grand magasin Lainz. Son grand-père, Manuel Lainz y Ruiz del Pumar, est un noble d'Ajo (es), et un descendant du Marquesado de las Riberas de Boconó y Masparro (es), dont la famille était passée d'Espagne à la Vice-royauté de Nouvelle-Grenade au XVIIIe siècle[1]. C'était également le frère de Francisco Lainz (es).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Santander le 5 mai 1923, dans une famille bourgeoise, baptisé Manuel Sebastián Pío Laínz y Gallo. Son père, Manuel Lainz y Ribalaygua, est l'un des hommes les plus riches de la province, propriétaire de la compagnie de tabac Jean (es) et du grand magasin Lainz. Son grand-père, Manuel Lainz y Ruiz del Pumar, est un noble d'Ajo (es), et un descendant du Marquesado de las Riberas de Boconó y Masparro (es), dont la famille était passée d'Espagne à la Vice-royauté de Nouvelle-Grenade au XVIIIe siècle. C'était également le frère de Francisco Lainz (es).
 En 1939, il entre au noviciat de la Compagnie de Jésus à Palencia, et en 1941, il se rend à Salamanque, où il étudie les sciences humaines. En 1943, il s'installe à Carrión de los Condes et travaille comme enseignant. A posteriori, il étudie la philosophie et la théologie à l'Université de Comillas de Cantabrie. Puis il retourne à Comillas pour étudier les sciences naturelles.
 Entre 1956 et 1978, il va à l'Universidad Laboral de Gijón (es), en tant que professeur et chercheur en botanique, consacrant beaucoup d'efforts à la création d'un herbier monumental. Pendant ce temps, il se lie d'amitié avec Félix Rodríguez de la Fuente.
 En 2004, la Compagnie de Jésus cède l'œuvre du Père Laínz à la Mairie de Gijón : une bibliothèque spécialisée en botanique et un herbier de 38 000 spécimens ; les protégeant dans le Jardín Botánico Atlántico (es).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manuel_La%C3%ADnz</t>
+          <t>Manuel_Laínz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +559,49 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Docteur honoris causa de l'Université d'Oviedo
 Membre de l'Association internationale pour la taxonomie végétale (IAP)
-Membre de l'Institut royal d'études asturiennes (RIDEA)
-Éponymie
-23 espèces de plantes lui sont dédiées[2] :
+Membre de l'Institut royal d'études asturiennes (RIDEA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Manuel_Laínz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Manuel_La%C3%ADnz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Honneurs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23 espèces de plantes lui sont dédiées :
 Adenocarpus lainzii (Castrov.) Castrov., Anales Jard. Bot. Madrid 57(1): 43 (1999).
 Alchemilla lainzii S.E.Fröhner, Anales Jard. Bot. Madrid 53(1): 25 (1995).
 Carex lainzii Luceño, E.Rico &amp; Romero García, Anales Jard. Bot. Madrid 44(2): 429 (1987).
@@ -578,31 +628,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Manuel_La%C3%ADnz</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Manuel_Laínz</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Manuel_La%C3%ADnz</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(es) Modesto Luceño, Pablo Vargas et Manuel Laínz, Guía botánica: de los Picos de Europa, Pirámide, 1995 (ISBN 978-84-368-0898-8, OCLC 34236572, lire en ligne)
 (es) Manuel Laínz et KSKSKS, Aportaciones al conocimiento de la flora gallega. 8 8, 1974 (OCLC 835513818, lire en ligne)
